--- a/reports/vivado/OperationChaining9nsSolution/power/OperationChaining9nsClocksPowerReport.xlsx
+++ b/reports/vivado/OperationChaining9nsSolution/power/OperationChaining9nsClocksPowerReport.xlsx
@@ -186,7 +186,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>0.0016009623650461435</v>
+        <v>0.0016011279076337814</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>10</v>
@@ -218,7 +218,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>0.0016009624814614654</v>
+        <v>0.0016011279076337814</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>12</v>
@@ -250,7 +250,7 @@
     </row>
     <row r="4" outlineLevel="2">
       <c r="A4" t="n" s="8">
-        <v>0.0016009624814614654</v>
+        <v>0.0016011279076337814</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>12</v>
